--- a/data/trans_bre/P24_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,93</t>
+          <t>21,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>20,98</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>91,74%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>121,66%</t>
+          <t>75,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>121,77%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 32,48</t>
+          <t>11,01; 31,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 18,47</t>
+          <t>-3,84; 18,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 17,89</t>
+          <t>2,08; 19,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 17,4</t>
+          <t>-1,01; 17,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 33,0</t>
+          <t>-10,17; 13,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,12; 165,79</t>
+          <t>9,85; 33,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 74,96</t>
+          <t>-8,48; 16,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 153,07</t>
+          <t>39,79; 168,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 190,12</t>
+          <t>-10,93; 78,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,93; 288,59</t>
+          <t>7,34; 205,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 174,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; 67,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>39,99; 286,44</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-24,52; 79,29</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>87,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>52,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>51,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 23,17</t>
+          <t>5,24; 22,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 19,73</t>
+          <t>-6,92; 17,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 17,8</t>
+          <t>2,05; 18,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 19,25</t>
+          <t>0,02; 19,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 25,09</t>
+          <t>-25,77; 10,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,22; 195,94</t>
+          <t>2,56; 24,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 102,21</t>
+          <t>-11,81; 13,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 122,45</t>
+          <t>26,1; 185,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 132,92</t>
+          <t>-21,58; 93,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 141,99</t>
+          <t>5,89; 125,7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 132,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-50,23; 41,55</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 137,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 46,37</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>11,2</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>58,98%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>70,41%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>43,53%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>61,84%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 21,16</t>
+          <t>5,77; 21,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 18,58</t>
+          <t>1,32; 17,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 11,01</t>
+          <t>-2,87; 10,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 19,08</t>
+          <t>6,27; 19,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 19,19</t>
+          <t>-1,65; 15,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 110,65</t>
+          <t>2,51; 19,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 113,75</t>
+          <t>7,97; 25,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 59,66</t>
+          <t>21,28; 116,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,99; 131,16</t>
+          <t>5,14; 93,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 90,85</t>
+          <t>-10,86; 58,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 131,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 76,54</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 95,39</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 114,99</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,71</t>
+          <t>15,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>18,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>17,28</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>77,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>66,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>70,28%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>52,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>51,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 23,11</t>
+          <t>8,43; 23,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 21,89</t>
+          <t>7,33; 22,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 23,02</t>
+          <t>8,42; 22,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 24,89</t>
+          <t>12,35; 26,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 26,4</t>
+          <t>6,09; 22,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 134,47</t>
+          <t>7,12; 26,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 119,68</t>
+          <t>-1,51; 16,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,21; 124,87</t>
+          <t>28,54; 136,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,59; 140,57</t>
+          <t>26,2; 119,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 92,83</t>
+          <t>29,81; 115,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48,86; 145,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 97,3</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 98,99</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 51,69</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,48</t>
+          <t>19,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,98</t>
+          <t>17,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,35%</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>73,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>122,97%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>41,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>122,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>69,73%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>45,48%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>45,73%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,03</t>
+          <t>4,25; 18,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 14,17</t>
+          <t>-3,89; 15,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 20,9</t>
+          <t>2,2; 19,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,53; 26,29</t>
+          <t>11,94; 26,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 27,18</t>
+          <t>7,45; 27,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,84; 158,29</t>
+          <t>6,43; 26,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 72,98</t>
+          <t>7,3; 26,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,13; 98,27</t>
+          <t>21,29; 145,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,45; 206,25</t>
+          <t>-12,48; 71,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,44; 85,39</t>
+          <t>6,41; 89,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59,56; 205,65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,97; 133,85</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 82,17</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 86,55</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>19,25</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>12,09</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,85%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>23,94</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>39,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>85,67%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>49,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>82,16%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 13,53</t>
+          <t>-3,36; 13,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 14,77</t>
+          <t>-1,54; 16,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 13,2</t>
+          <t>-4,76; 12,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 13,32</t>
+          <t>-1,18; 16,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 23,53</t>
+          <t>8,37; 30,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 89,75</t>
+          <t>0,25; 23,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 95,48</t>
+          <t>13,34; 35,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 80,45</t>
+          <t>-15,13; 85,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 91,6</t>
+          <t>-7,23; 104,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 117,96</t>
+          <t>-16,45; 73,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 103,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 170,51</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 122,2</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>39,58; 160,2</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>9,87</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>14,94</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>67,06%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>67,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>44,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>69,78%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36,9%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>54,32%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>38,69%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,81</t>
+          <t>10,13; 17,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,22</t>
+          <t>4,18; 12,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,39</t>
+          <t>6,04; 12,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 16,03</t>
+          <t>9,43; 16,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 19,48</t>
+          <t>4,89; 14,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,94; 91,87</t>
+          <t>10,26; 19,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,22; 56,28</t>
+          <t>8,24; 17,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,69; 63,88</t>
+          <t>45,86; 92,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,78; 95,05</t>
+          <t>16,47; 56,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,6; 77,36</t>
+          <t>26,43; 64,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46,15; 94,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,28; 58,36</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>33,6; 74,74</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>23,37; 57,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
